--- a/call_summary.xlsx
+++ b/call_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,45 +449,90 @@
           <t>invalid_numbers</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>call_status</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>919510038048</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+919510038048</t>
-        </is>
+      <c r="A2" t="n">
+        <v>919510038048</v>
+      </c>
+      <c r="B2" t="n">
+        <v>919510038048</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>919328027733</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>+919328027733</t>
-        </is>
+      <c r="A3" t="n">
+        <v>919328027733</v>
+      </c>
+      <c r="B3" t="n">
+        <v>919328027733</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>919106284482</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>+919106284482</t>
-        </is>
+      <c r="A4" t="n">
+        <v>919106284482</v>
+      </c>
+      <c r="B4" t="n">
+        <v>919106284482</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+919510038048</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laptop Pro </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-11-27 16:14:47</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
